--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lrpap1-Lrp8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lrpap1-Lrp8.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.147963333333333</v>
+        <v>7.611809333333333</v>
       </c>
       <c r="H2">
-        <v>15.44389</v>
+        <v>22.835428</v>
       </c>
       <c r="I2">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="J2">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1868273333333333</v>
+        <v>2.235910666666667</v>
       </c>
       <c r="N2">
-        <v>0.5604819999999999</v>
+        <v>6.707732</v>
       </c>
       <c r="O2">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="P2">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="Q2">
-        <v>0.9617802616644443</v>
+        <v>17.01932568103289</v>
       </c>
       <c r="R2">
-        <v>8.656022354979999</v>
+        <v>153.173931129296</v>
       </c>
       <c r="S2">
-        <v>0.001177902472864385</v>
+        <v>0.01210409916038671</v>
       </c>
       <c r="T2">
-        <v>0.001177902472864385</v>
+        <v>0.01210409916038671</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.147963333333333</v>
+        <v>7.611809333333333</v>
       </c>
       <c r="H3">
-        <v>15.44389</v>
+        <v>22.835428</v>
       </c>
       <c r="I3">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="J3">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>14.531156</v>
       </c>
       <c r="O3">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="P3">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="Q3">
-        <v>24.93528609298222</v>
+        <v>36.86946295497422</v>
       </c>
       <c r="R3">
-        <v>224.41757483684</v>
+        <v>331.825166594768</v>
       </c>
       <c r="S3">
-        <v>0.03053850897259529</v>
+        <v>0.02622146399692897</v>
       </c>
       <c r="T3">
-        <v>0.03053850897259529</v>
+        <v>0.02622146399692897</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.147963333333333</v>
+        <v>7.611809333333333</v>
       </c>
       <c r="H4">
-        <v>15.44389</v>
+        <v>22.835428</v>
       </c>
       <c r="I4">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="J4">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.932387666666666</v>
+        <v>3.665225999999999</v>
       </c>
       <c r="N4">
-        <v>5.797162999999999</v>
+        <v>10.995678</v>
       </c>
       <c r="O4">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280256</v>
       </c>
       <c r="P4">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280257</v>
       </c>
       <c r="Q4">
-        <v>9.947860853785555</v>
+        <v>27.89900147557599</v>
       </c>
       <c r="R4">
-        <v>89.53074768406999</v>
+        <v>251.091013280184</v>
       </c>
       <c r="S4">
-        <v>0.01218325054738229</v>
+        <v>0.01984169565028576</v>
       </c>
       <c r="T4">
-        <v>0.01218325054738229</v>
+        <v>0.01984169565028577</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.147963333333333</v>
+        <v>7.611809333333333</v>
       </c>
       <c r="H5">
-        <v>15.44389</v>
+        <v>22.835428</v>
       </c>
       <c r="I5">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="J5">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4503413333333333</v>
+        <v>2.309336666666667</v>
       </c>
       <c r="N5">
-        <v>1.351024</v>
+        <v>6.92801</v>
       </c>
       <c r="O5">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="P5">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="Q5">
-        <v>2.318340671484444</v>
+        <v>17.57823039314222</v>
       </c>
       <c r="R5">
-        <v>20.86506604336</v>
+        <v>158.20407353828</v>
       </c>
       <c r="S5">
-        <v>0.002839296374369085</v>
+        <v>0.01250159070519674</v>
       </c>
       <c r="T5">
-        <v>0.002839296374369085</v>
+        <v>0.01250159070519674</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.147963333333333</v>
+        <v>7.611809333333333</v>
       </c>
       <c r="H6">
-        <v>15.44389</v>
+        <v>22.835428</v>
       </c>
       <c r="I6">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="J6">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.064756333333333</v>
+        <v>5.600827333333332</v>
       </c>
       <c r="N6">
-        <v>15.194269</v>
+        <v>16.802482</v>
       </c>
       <c r="O6">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="P6">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="Q6">
-        <v>26.07317989626778</v>
+        <v>42.6324297702551</v>
       </c>
       <c r="R6">
-        <v>234.65861906641</v>
+        <v>383.691867932296</v>
       </c>
       <c r="S6">
-        <v>0.03193209956513621</v>
+        <v>0.03032007066898511</v>
       </c>
       <c r="T6">
-        <v>0.03193209956513621</v>
+        <v>0.03032007066898511</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.147963333333333</v>
+        <v>7.611809333333333</v>
       </c>
       <c r="H7">
-        <v>15.44389</v>
+        <v>22.835428</v>
       </c>
       <c r="I7">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="J7">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.513423333333333</v>
+        <v>2.303771333333333</v>
       </c>
       <c r="N7">
-        <v>4.54027</v>
+        <v>6.911314</v>
       </c>
       <c r="O7">
-        <v>0.108167690164406</v>
+        <v>0.1099190964771313</v>
       </c>
       <c r="P7">
-        <v>0.1081676901644061</v>
+        <v>0.1099190964771314</v>
       </c>
       <c r="Q7">
-        <v>7.79104782781111</v>
+        <v>17.53586813693244</v>
       </c>
       <c r="R7">
-        <v>70.11943045029999</v>
+        <v>157.822813232392</v>
       </c>
       <c r="S7">
-        <v>0.009541778791240366</v>
+        <v>0.01247146278124542</v>
       </c>
       <c r="T7">
-        <v>0.009541778791240367</v>
+        <v>0.01247146278124543</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>31.579463</v>
       </c>
       <c r="I8">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="J8">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1868273333333333</v>
+        <v>2.235910666666667</v>
       </c>
       <c r="N8">
-        <v>0.5604819999999999</v>
+        <v>6.707732</v>
       </c>
       <c r="O8">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="P8">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="Q8">
-        <v>1.966635620129555</v>
+        <v>23.53628605643512</v>
       </c>
       <c r="R8">
-        <v>17.69972058116599</v>
+        <v>211.826574507916</v>
       </c>
       <c r="S8">
-        <v>0.002408559472997371</v>
+        <v>0.016738944047108</v>
       </c>
       <c r="T8">
-        <v>0.002408559472997371</v>
+        <v>0.016738944047108</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>31.579463</v>
       </c>
       <c r="I9">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="J9">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>14.531156</v>
       </c>
       <c r="O9">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="P9">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="Q9">
-        <v>50.98734480546977</v>
+        <v>50.98734480546978</v>
       </c>
       <c r="R9">
-        <v>458.8861032492279</v>
+        <v>458.886103249228</v>
       </c>
       <c r="S9">
-        <v>0.06244474120025725</v>
+        <v>0.03626206402160934</v>
       </c>
       <c r="T9">
-        <v>0.06244474120025725</v>
+        <v>0.03626206402160934</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>31.579463</v>
       </c>
       <c r="I10">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="J10">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.932387666666666</v>
+        <v>3.665225999999999</v>
       </c>
       <c r="N10">
-        <v>5.797162999999999</v>
+        <v>10.995678</v>
       </c>
       <c r="O10">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280256</v>
       </c>
       <c r="P10">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280257</v>
       </c>
       <c r="Q10">
-        <v>20.34125494038544</v>
+        <v>38.581956284546</v>
       </c>
       <c r="R10">
-        <v>183.071294463469</v>
+        <v>347.237606560914</v>
       </c>
       <c r="S10">
-        <v>0.02491215036372239</v>
+        <v>0.02743938469843702</v>
       </c>
       <c r="T10">
-        <v>0.02491215036372239</v>
+        <v>0.02743938469843702</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>31.579463</v>
       </c>
       <c r="I11">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="J11">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4503413333333333</v>
+        <v>2.309336666666667</v>
       </c>
       <c r="N11">
-        <v>1.351024</v>
+        <v>6.92801</v>
       </c>
       <c r="O11">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="P11">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="Q11">
-        <v>4.740512491123555</v>
+        <v>24.30920393984778</v>
       </c>
       <c r="R11">
-        <v>42.66461242011199</v>
+        <v>218.78283545863</v>
       </c>
       <c r="S11">
-        <v>0.005805755855579305</v>
+        <v>0.01728864119016751</v>
       </c>
       <c r="T11">
-        <v>0.005805755855579305</v>
+        <v>0.01728864119016751</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>31.579463</v>
       </c>
       <c r="I12">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="J12">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.064756333333333</v>
+        <v>5.600827333333332</v>
       </c>
       <c r="N12">
-        <v>15.194269</v>
+        <v>16.802482</v>
       </c>
       <c r="O12">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="P12">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="Q12">
-        <v>53.31409507750522</v>
+        <v>58.95703984746289</v>
       </c>
       <c r="R12">
-        <v>479.826855697547</v>
+        <v>530.613358627166</v>
       </c>
       <c r="S12">
-        <v>0.06529433690148888</v>
+        <v>0.04193008993957112</v>
       </c>
       <c r="T12">
-        <v>0.06529433690148888</v>
+        <v>0.04193008993957112</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>31.579463</v>
       </c>
       <c r="I13">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="J13">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.513423333333333</v>
+        <v>2.303771333333333</v>
       </c>
       <c r="N13">
-        <v>4.54027</v>
+        <v>6.911314</v>
       </c>
       <c r="O13">
-        <v>0.108167690164406</v>
+        <v>0.1099190964771313</v>
       </c>
       <c r="P13">
-        <v>0.1081676901644061</v>
+        <v>0.1099190964771314</v>
       </c>
       <c r="Q13">
-        <v>15.93103205277889</v>
+        <v>24.25062052715356</v>
       </c>
       <c r="R13">
-        <v>143.37928847501</v>
+        <v>218.255584744382</v>
       </c>
       <c r="S13">
-        <v>0.01951090368373252</v>
+        <v>0.01724697682286564</v>
       </c>
       <c r="T13">
-        <v>0.01951090368373253</v>
+        <v>0.01724697682286564</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.86906433333333</v>
+        <v>19.26381566666667</v>
       </c>
       <c r="H14">
-        <v>47.607193</v>
+        <v>57.791447</v>
       </c>
       <c r="I14">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="J14">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1868273333333333</v>
+        <v>2.235910666666667</v>
       </c>
       <c r="N14">
-        <v>0.5604819999999999</v>
+        <v>6.707732</v>
       </c>
       <c r="O14">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="P14">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="Q14">
-        <v>2.964774971891778</v>
+        <v>43.07217092980044</v>
       </c>
       <c r="R14">
-        <v>26.682974747026</v>
+        <v>387.649538368204</v>
       </c>
       <c r="S14">
-        <v>0.00363099130859078</v>
+        <v>0.03063281341213457</v>
       </c>
       <c r="T14">
-        <v>0.00363099130859078</v>
+        <v>0.03063281341213456</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.86906433333333</v>
+        <v>19.26381566666667</v>
       </c>
       <c r="H15">
-        <v>47.607193</v>
+        <v>57.791447</v>
       </c>
       <c r="I15">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="J15">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>14.531156</v>
       </c>
       <c r="O15">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="P15">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="Q15">
-        <v>76.86528313390089</v>
+        <v>93.3085035358591</v>
       </c>
       <c r="R15">
-        <v>691.787548205108</v>
+        <v>839.776531822732</v>
       </c>
       <c r="S15">
-        <v>0.09413772634942205</v>
+        <v>0.06636075955488675</v>
       </c>
       <c r="T15">
-        <v>0.09413772634942205</v>
+        <v>0.06636075955488675</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.86906433333333</v>
+        <v>19.26381566666667</v>
       </c>
       <c r="H16">
-        <v>47.607193</v>
+        <v>57.791447</v>
       </c>
       <c r="I16">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="J16">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.932387666666666</v>
+        <v>3.665225999999999</v>
       </c>
       <c r="N16">
-        <v>5.797162999999999</v>
+        <v>10.995678</v>
       </c>
       <c r="O16">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280256</v>
       </c>
       <c r="P16">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280257</v>
       </c>
       <c r="Q16">
-        <v>30.66518419927322</v>
+        <v>70.60623804067399</v>
       </c>
       <c r="R16">
-        <v>275.986657793459</v>
+        <v>635.4561423660658</v>
       </c>
       <c r="S16">
-        <v>0.03755597586984783</v>
+        <v>0.05021496871280977</v>
       </c>
       <c r="T16">
-        <v>0.03755597586984783</v>
+        <v>0.05021496871280978</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.86906433333333</v>
+        <v>19.26381566666667</v>
       </c>
       <c r="H17">
-        <v>47.607193</v>
+        <v>57.791447</v>
       </c>
       <c r="I17">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="J17">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.4503413333333333</v>
+        <v>2.309336666666667</v>
       </c>
       <c r="N17">
-        <v>1.351024</v>
+        <v>6.92801</v>
       </c>
       <c r="O17">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="P17">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="Q17">
-        <v>7.146495590625777</v>
+        <v>44.48663585894111</v>
       </c>
       <c r="R17">
-        <v>64.31846031563201</v>
+        <v>400.37972273047</v>
       </c>
       <c r="S17">
-        <v>0.008752388839779959</v>
+        <v>0.03163877710788123</v>
       </c>
       <c r="T17">
-        <v>0.008752388839779959</v>
+        <v>0.03163877710788123</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>15.86906433333333</v>
+        <v>19.26381566666667</v>
       </c>
       <c r="H18">
-        <v>47.607193</v>
+        <v>57.791447</v>
       </c>
       <c r="I18">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="J18">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.064756333333333</v>
+        <v>5.600827333333332</v>
       </c>
       <c r="N18">
-        <v>15.194269</v>
+        <v>16.802482</v>
       </c>
       <c r="O18">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="P18">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="Q18">
-        <v>80.37294408632411</v>
+        <v>107.8933053301615</v>
       </c>
       <c r="R18">
-        <v>723.3564967769171</v>
+        <v>971.0397479714538</v>
       </c>
       <c r="S18">
-        <v>0.0984335958681819</v>
+        <v>0.07673343180179971</v>
       </c>
       <c r="T18">
-        <v>0.0984335958681819</v>
+        <v>0.07673343180179971</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>15.86906433333333</v>
+        <v>19.26381566666667</v>
       </c>
       <c r="H19">
-        <v>47.607193</v>
+        <v>57.791447</v>
       </c>
       <c r="I19">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="J19">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.513423333333333</v>
+        <v>2.303771333333333</v>
       </c>
       <c r="N19">
-        <v>4.54027</v>
+        <v>6.911314</v>
       </c>
       <c r="O19">
-        <v>0.108167690164406</v>
+        <v>0.1099190964771313</v>
       </c>
       <c r="P19">
-        <v>0.1081676901644061</v>
+        <v>0.1099190964771314</v>
       </c>
       <c r="Q19">
-        <v>24.01661224023444</v>
+        <v>44.37942630348422</v>
       </c>
       <c r="R19">
-        <v>216.14951016211</v>
+        <v>399.414836731358</v>
       </c>
       <c r="S19">
-        <v>0.0294133993752796</v>
+        <v>0.03156252995717083</v>
       </c>
       <c r="T19">
-        <v>0.0294133993752796</v>
+        <v>0.03156252995717083</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.850633666666667</v>
+        <v>3.278219666666667</v>
       </c>
       <c r="H20">
-        <v>17.551901</v>
+        <v>9.834659</v>
       </c>
       <c r="I20">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638807</v>
       </c>
       <c r="J20">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638808</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1868273333333333</v>
+        <v>2.235910666666667</v>
       </c>
       <c r="N20">
-        <v>0.5604819999999999</v>
+        <v>6.707732</v>
       </c>
       <c r="O20">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="P20">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="Q20">
-        <v>1.093058286253556</v>
+        <v>7.329806320376445</v>
       </c>
       <c r="R20">
-        <v>9.837524576281998</v>
+        <v>65.96825688338801</v>
       </c>
       <c r="S20">
-        <v>0.001338680059970052</v>
+        <v>0.005212938760972189</v>
       </c>
       <c r="T20">
-        <v>0.001338680059970052</v>
+        <v>0.005212938760972189</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.850633666666667</v>
+        <v>3.278219666666667</v>
       </c>
       <c r="H21">
-        <v>17.551901</v>
+        <v>9.834659</v>
       </c>
       <c r="I21">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638807</v>
       </c>
       <c r="J21">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638808</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>14.531156</v>
       </c>
       <c r="O21">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="P21">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="Q21">
-        <v>28.33882350306178</v>
+        <v>15.87877379286711</v>
       </c>
       <c r="R21">
-        <v>255.049411527556</v>
+        <v>142.908964135804</v>
       </c>
       <c r="S21">
-        <v>0.03470685728625394</v>
+        <v>0.01129294169089248</v>
       </c>
       <c r="T21">
-        <v>0.03470685728625394</v>
+        <v>0.01129294169089248</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.850633666666667</v>
+        <v>3.278219666666667</v>
       </c>
       <c r="H22">
-        <v>17.551901</v>
+        <v>9.834659</v>
       </c>
       <c r="I22">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638807</v>
       </c>
       <c r="J22">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638808</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.932387666666666</v>
+        <v>3.665225999999999</v>
       </c>
       <c r="N22">
-        <v>5.797162999999999</v>
+        <v>10.995678</v>
       </c>
       <c r="O22">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280256</v>
       </c>
       <c r="P22">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280257</v>
       </c>
       <c r="Q22">
-        <v>11.30569233965144</v>
+        <v>12.015415955978</v>
       </c>
       <c r="R22">
-        <v>101.751231056863</v>
+        <v>108.138743603802</v>
       </c>
       <c r="S22">
-        <v>0.0138462011491826</v>
+        <v>0.008545331872139367</v>
       </c>
       <c r="T22">
-        <v>0.0138462011491826</v>
+        <v>0.008545331872139369</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.850633666666667</v>
+        <v>3.278219666666667</v>
       </c>
       <c r="H23">
-        <v>17.551901</v>
+        <v>9.834659</v>
       </c>
       <c r="I23">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638807</v>
       </c>
       <c r="J23">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638808</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.4503413333333333</v>
+        <v>2.309336666666667</v>
       </c>
       <c r="N23">
-        <v>1.351024</v>
+        <v>6.92801</v>
       </c>
       <c r="O23">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="P23">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="Q23">
-        <v>2.634782166291556</v>
+        <v>7.570512877621112</v>
       </c>
       <c r="R23">
-        <v>23.713039496624</v>
+        <v>68.13461589859001</v>
       </c>
       <c r="S23">
-        <v>0.003226845624553472</v>
+        <v>0.005384128624310413</v>
       </c>
       <c r="T23">
-        <v>0.003226845624553472</v>
+        <v>0.005384128624310413</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.850633666666667</v>
+        <v>3.278219666666667</v>
       </c>
       <c r="H24">
-        <v>17.551901</v>
+        <v>9.834659</v>
       </c>
       <c r="I24">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638807</v>
       </c>
       <c r="J24">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638808</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.064756333333333</v>
+        <v>5.600827333333332</v>
       </c>
       <c r="N24">
-        <v>15.194269</v>
+        <v>16.802482</v>
       </c>
       <c r="O24">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="P24">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="Q24">
-        <v>29.63203391726323</v>
+        <v>18.36074231373755</v>
       </c>
       <c r="R24">
-        <v>266.688305255369</v>
+        <v>165.246680823638</v>
       </c>
       <c r="S24">
-        <v>0.03629066577717233</v>
+        <v>0.01305811110198462</v>
       </c>
       <c r="T24">
-        <v>0.03629066577717233</v>
+        <v>0.01305811110198462</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.850633666666667</v>
+        <v>3.278219666666667</v>
       </c>
       <c r="H25">
-        <v>17.551901</v>
+        <v>9.834659</v>
       </c>
       <c r="I25">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638807</v>
       </c>
       <c r="J25">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638808</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.513423333333333</v>
+        <v>2.303771333333333</v>
       </c>
       <c r="N25">
-        <v>4.54027</v>
+        <v>6.911314</v>
       </c>
       <c r="O25">
-        <v>0.108167690164406</v>
+        <v>0.1099190964771313</v>
       </c>
       <c r="P25">
-        <v>0.1081676901644061</v>
+        <v>0.1099190964771314</v>
       </c>
       <c r="Q25">
-        <v>8.854485505918888</v>
+        <v>7.552268492436222</v>
       </c>
       <c r="R25">
-        <v>79.69036955327</v>
+        <v>67.970416431926</v>
       </c>
       <c r="S25">
-        <v>0.0108441821786966</v>
+        <v>0.005371153266089006</v>
       </c>
       <c r="T25">
-        <v>0.0108441821786966</v>
+        <v>0.005371153266089008</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.843775333333333</v>
+        <v>5.160004333333333</v>
       </c>
       <c r="H26">
-        <v>17.531326</v>
+        <v>15.480013</v>
       </c>
       <c r="I26">
-        <v>0.1001359112235315</v>
+        <v>0.07691417928547969</v>
       </c>
       <c r="J26">
-        <v>0.1001359112235316</v>
+        <v>0.07691417928547971</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.1868273333333333</v>
+        <v>2.235910666666667</v>
       </c>
       <c r="N26">
-        <v>0.5604819999999999</v>
+        <v>6.707732</v>
       </c>
       <c r="O26">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="P26">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="Q26">
-        <v>1.091776962125778</v>
+        <v>11.53730872894622</v>
       </c>
       <c r="R26">
-        <v>9.825992659131998</v>
+        <v>103.835778560516</v>
       </c>
       <c r="S26">
-        <v>0.001337110808740006</v>
+        <v>0.00820530328383052</v>
       </c>
       <c r="T26">
-        <v>0.001337110808740006</v>
+        <v>0.00820530328383052</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.843775333333333</v>
+        <v>5.160004333333333</v>
       </c>
       <c r="H27">
-        <v>17.531326</v>
+        <v>15.480013</v>
       </c>
       <c r="I27">
-        <v>0.1001359112235315</v>
+        <v>0.07691417928547969</v>
       </c>
       <c r="J27">
-        <v>0.1001359112235316</v>
+        <v>0.07691417928547971</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>14.531156</v>
       </c>
       <c r="O27">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="P27">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="Q27">
-        <v>28.30560366587289</v>
+        <v>24.99360930944756</v>
       </c>
       <c r="R27">
-        <v>254.750432992856</v>
+        <v>224.942483785028</v>
       </c>
       <c r="S27">
-        <v>0.03466617259981087</v>
+        <v>0.01777538846880787</v>
       </c>
       <c r="T27">
-        <v>0.03466617259981088</v>
+        <v>0.01777538846880787</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.843775333333333</v>
+        <v>5.160004333333333</v>
       </c>
       <c r="H28">
-        <v>17.531326</v>
+        <v>15.480013</v>
       </c>
       <c r="I28">
-        <v>0.1001359112235315</v>
+        <v>0.07691417928547969</v>
       </c>
       <c r="J28">
-        <v>0.1001359112235316</v>
+        <v>0.07691417928547971</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.932387666666666</v>
+        <v>3.665225999999999</v>
       </c>
       <c r="N28">
-        <v>5.797162999999999</v>
+        <v>10.995678</v>
       </c>
       <c r="O28">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280256</v>
       </c>
       <c r="P28">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280257</v>
       </c>
       <c r="Q28">
-        <v>11.29243938090422</v>
+        <v>18.91258204264599</v>
       </c>
       <c r="R28">
-        <v>101.631954428138</v>
+        <v>170.213238383814</v>
       </c>
       <c r="S28">
-        <v>0.01382997011024019</v>
+        <v>0.01345057804953194</v>
       </c>
       <c r="T28">
-        <v>0.01382997011024019</v>
+        <v>0.01345057804953194</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.843775333333333</v>
+        <v>5.160004333333333</v>
       </c>
       <c r="H29">
-        <v>17.531326</v>
+        <v>15.480013</v>
       </c>
       <c r="I29">
-        <v>0.1001359112235315</v>
+        <v>0.07691417928547969</v>
       </c>
       <c r="J29">
-        <v>0.1001359112235316</v>
+        <v>0.07691417928547971</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.4503413333333333</v>
+        <v>2.309336666666667</v>
       </c>
       <c r="N29">
-        <v>1.351024</v>
+        <v>6.92801</v>
       </c>
       <c r="O29">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="P29">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="Q29">
-        <v>2.631693575313778</v>
+        <v>11.91618720712556</v>
       </c>
       <c r="R29">
-        <v>23.685242177824</v>
+        <v>107.24568486413</v>
       </c>
       <c r="S29">
-        <v>0.003223062994471113</v>
+        <v>0.00847476064986059</v>
       </c>
       <c r="T29">
-        <v>0.003223062994471113</v>
+        <v>0.008474760649860592</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.843775333333333</v>
+        <v>5.160004333333333</v>
       </c>
       <c r="H30">
-        <v>17.531326</v>
+        <v>15.480013</v>
       </c>
       <c r="I30">
-        <v>0.1001359112235315</v>
+        <v>0.07691417928547969</v>
       </c>
       <c r="J30">
-        <v>0.1001359112235316</v>
+        <v>0.07691417928547971</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>5.064756333333333</v>
+        <v>5.600827333333332</v>
       </c>
       <c r="N30">
-        <v>15.194269</v>
+        <v>16.802482</v>
       </c>
       <c r="O30">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="P30">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="Q30">
-        <v>29.59729813007711</v>
+        <v>28.90029331025177</v>
       </c>
       <c r="R30">
-        <v>266.375683170694</v>
+        <v>260.102639792266</v>
       </c>
       <c r="S30">
-        <v>0.03624812449071194</v>
+        <v>0.02055381174010875</v>
       </c>
       <c r="T30">
-        <v>0.03624812449071194</v>
+        <v>0.02055381174010876</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.843775333333333</v>
+        <v>5.160004333333333</v>
       </c>
       <c r="H31">
-        <v>17.531326</v>
+        <v>15.480013</v>
       </c>
       <c r="I31">
-        <v>0.1001359112235315</v>
+        <v>0.07691417928547969</v>
       </c>
       <c r="J31">
-        <v>0.1001359112235316</v>
+        <v>0.07691417928547971</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.513423333333333</v>
+        <v>2.303771333333333</v>
       </c>
       <c r="N31">
-        <v>4.54027</v>
+        <v>6.911314</v>
       </c>
       <c r="O31">
-        <v>0.108167690164406</v>
+        <v>0.1099190964771313</v>
       </c>
       <c r="P31">
-        <v>0.1081676901644061</v>
+        <v>0.1099190964771314</v>
       </c>
       <c r="Q31">
-        <v>8.844105944224443</v>
+        <v>11.88747006300911</v>
       </c>
       <c r="R31">
-        <v>79.59695349802</v>
+        <v>106.987230567082</v>
       </c>
       <c r="S31">
-        <v>0.01083147021955743</v>
+        <v>0.008454337093340019</v>
       </c>
       <c r="T31">
-        <v>0.01083147021955743</v>
+        <v>0.008454337093340022</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>15.12051333333334</v>
+        <v>21.24747966666667</v>
       </c>
       <c r="H32">
-        <v>45.36154000000001</v>
+        <v>63.742439</v>
       </c>
       <c r="I32">
-        <v>0.259097294888172</v>
+        <v>0.316711451168662</v>
       </c>
       <c r="J32">
-        <v>0.259097294888172</v>
+        <v>0.3167114511686621</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0.1868273333333333</v>
+        <v>2.235910666666667</v>
       </c>
       <c r="N32">
-        <v>0.5604819999999999</v>
+        <v>6.707732</v>
       </c>
       <c r="O32">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="P32">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="Q32">
-        <v>2.824925184697778</v>
+        <v>47.50746642648311</v>
       </c>
       <c r="R32">
-        <v>25.42432666228</v>
+        <v>427.567197838348</v>
       </c>
       <c r="S32">
-        <v>0.003459715793037683</v>
+        <v>0.03378718377342878</v>
       </c>
       <c r="T32">
-        <v>0.003459715793037683</v>
+        <v>0.03378718377342878</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>15.12051333333334</v>
+        <v>21.24747966666667</v>
       </c>
       <c r="H33">
-        <v>45.36154000000001</v>
+        <v>63.742439</v>
       </c>
       <c r="I33">
-        <v>0.259097294888172</v>
+        <v>0.316711451168662</v>
       </c>
       <c r="J33">
-        <v>0.259097294888172</v>
+        <v>0.3167114511686621</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>14.531156</v>
       </c>
       <c r="O33">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="P33">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="Q33">
-        <v>73.2395126822489</v>
+        <v>102.9168138810538</v>
       </c>
       <c r="R33">
-        <v>659.15561414024</v>
+        <v>926.251324929484</v>
       </c>
       <c r="S33">
-        <v>0.08969720687603579</v>
+        <v>0.07319416431848533</v>
       </c>
       <c r="T33">
-        <v>0.08969720687603579</v>
+        <v>0.07319416431848534</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>15.12051333333334</v>
+        <v>21.24747966666667</v>
       </c>
       <c r="H34">
-        <v>45.36154000000001</v>
+        <v>63.742439</v>
       </c>
       <c r="I34">
-        <v>0.259097294888172</v>
+        <v>0.316711451168662</v>
       </c>
       <c r="J34">
-        <v>0.259097294888172</v>
+        <v>0.3167114511686621</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.932387666666666</v>
+        <v>3.665225999999999</v>
       </c>
       <c r="N34">
-        <v>5.797162999999999</v>
+        <v>10.995678</v>
       </c>
       <c r="O34">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280256</v>
       </c>
       <c r="P34">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280257</v>
       </c>
       <c r="Q34">
-        <v>29.21869347900222</v>
+        <v>77.87681490873798</v>
       </c>
       <c r="R34">
-        <v>262.96824131102</v>
+        <v>700.891334178642</v>
       </c>
       <c r="S34">
-        <v>0.03578444336466419</v>
+        <v>0.05538578364482178</v>
       </c>
       <c r="T34">
-        <v>0.03578444336466419</v>
+        <v>0.0553857836448218</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>15.12051333333334</v>
+        <v>21.24747966666667</v>
       </c>
       <c r="H35">
-        <v>45.36154000000001</v>
+        <v>63.742439</v>
       </c>
       <c r="I35">
-        <v>0.259097294888172</v>
+        <v>0.316711451168662</v>
       </c>
       <c r="J35">
-        <v>0.259097294888172</v>
+        <v>0.3167114511686621</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.4503413333333333</v>
+        <v>2.309336666666667</v>
       </c>
       <c r="N35">
-        <v>1.351024</v>
+        <v>6.92801</v>
       </c>
       <c r="O35">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="P35">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="Q35">
-        <v>6.809392135217778</v>
+        <v>49.06758386848778</v>
       </c>
       <c r="R35">
-        <v>61.28452921696001</v>
+        <v>441.6082548163901</v>
       </c>
       <c r="S35">
-        <v>0.008339534667612775</v>
+        <v>0.03489673514895233</v>
       </c>
       <c r="T35">
-        <v>0.008339534667612775</v>
+        <v>0.03489673514895233</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>15.12051333333334</v>
+        <v>21.24747966666667</v>
       </c>
       <c r="H36">
-        <v>45.36154000000001</v>
+        <v>63.742439</v>
       </c>
       <c r="I36">
-        <v>0.259097294888172</v>
+        <v>0.316711451168662</v>
       </c>
       <c r="J36">
-        <v>0.259097294888172</v>
+        <v>0.3167114511686621</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>5.064756333333333</v>
+        <v>5.600827333333332</v>
       </c>
       <c r="N36">
-        <v>15.194269</v>
+        <v>16.802482</v>
       </c>
       <c r="O36">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="P36">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="Q36">
-        <v>76.58171566825112</v>
+        <v>119.0034648815109</v>
       </c>
       <c r="R36">
-        <v>689.2354410142601</v>
+        <v>1071.031183933598</v>
       </c>
       <c r="S36">
-        <v>0.09379043827092197</v>
+        <v>0.08463494772655335</v>
       </c>
       <c r="T36">
-        <v>0.09379043827092197</v>
+        <v>0.08463494772655336</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>15.12051333333334</v>
+        <v>21.24747966666667</v>
       </c>
       <c r="H37">
-        <v>45.36154000000001</v>
+        <v>63.742439</v>
       </c>
       <c r="I37">
-        <v>0.259097294888172</v>
+        <v>0.316711451168662</v>
       </c>
       <c r="J37">
-        <v>0.259097294888172</v>
+        <v>0.3167114511686621</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.513423333333333</v>
+        <v>2.303771333333333</v>
       </c>
       <c r="N37">
-        <v>4.54027</v>
+        <v>6.911314</v>
       </c>
       <c r="O37">
-        <v>0.108167690164406</v>
+        <v>0.1099190964771313</v>
       </c>
       <c r="P37">
-        <v>0.1081676901644061</v>
+        <v>0.1099190964771314</v>
       </c>
       <c r="Q37">
-        <v>22.88373769064444</v>
+        <v>48.94933456164955</v>
       </c>
       <c r="R37">
-        <v>205.9536392158</v>
+        <v>440.544011054846</v>
       </c>
       <c r="S37">
-        <v>0.02802595591589953</v>
+        <v>0.03481263655642043</v>
       </c>
       <c r="T37">
-        <v>0.02802595591589953</v>
+        <v>0.03481263655642044</v>
       </c>
     </row>
   </sheetData>
